--- a/Mold DP-2023.xlsx
+++ b/Mold DP-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C9B88-1552-49F3-AF4F-EDC8F4CEA0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3AB77-2926-46C7-B575-F5B47F8E19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B506E66-EE08-4FC6-AA5F-9E891990FBC6}"/>
+    <workbookView xWindow="28680" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{0B506E66-EE08-4FC6-AA5F-9E891990FBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SIM-M23026</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Mold-DP</t>
+  </si>
+  <si>
+    <t>5611012633A</t>
+  </si>
+  <si>
+    <t>Z0009680A</t>
+  </si>
+  <si>
+    <t>Z0009775A</t>
+  </si>
+  <si>
+    <t>SIM-M23025</t>
+  </si>
+  <si>
+    <t>SIM-M23052</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -190,6 +205,9 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -210,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430CAE55-7CA2-4728-B909-8364AA89F042}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -535,157 +553,185 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>56111012633</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>1346000</v>
+        <v>1520000</v>
       </c>
       <c r="D2" s="3">
-        <v>67.3</v>
+        <v>12.666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>1270000</v>
+        <v>1295000</v>
       </c>
       <c r="D3" s="3">
-        <v>84.6666666666666</v>
+        <v>10.791666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
-        <v>1270000</v>
+        <v>2000000</v>
       </c>
       <c r="D4" s="3">
-        <v>84.6666666666666</v>
+        <v>16.669999999999987</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1520000</v>
+        <v>1965000</v>
       </c>
       <c r="D5" s="3">
-        <v>12.6666666666666</v>
+        <v>16.379999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>1295000</v>
+        <v>2200000</v>
       </c>
       <c r="D6" s="3">
-        <v>10.7916666666666</v>
+        <v>18.330000000000013</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
-        <v>1500000</v>
+        <v>1165000</v>
       </c>
       <c r="D7" s="3">
-        <v>75</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="D8" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+      <c r="A9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>1165000</v>
+        <v>1346000</v>
       </c>
       <c r="D9" s="3">
-        <v>58.25</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2200000</v>
+        <v>1270000</v>
       </c>
       <c r="D10" s="3">
-        <v>18.329999999999998</v>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>2000000</v>
+        <v>1270000</v>
       </c>
       <c r="D11" s="3">
-        <v>16.669999999999899</v>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>1965000</v>
+        <v>1200000</v>
       </c>
       <c r="D12" s="3">
-        <v>16.3799999999999</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
